--- a/biology/Histoire de la zoologie et de la botanique/Richard_Henry_Beddome/Richard_Henry_Beddome.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Richard_Henry_Beddome/Richard_Henry_Beddome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Colonel Richard Henry Beddome est un militaire et un naturaliste britannique, né le 11 mai 1830 et mort le 23 février 1911.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il entre dans l'armée des Indes en 1848. En 1857, il devient conservateur-assistant au service des forêts de Madras, puis en 1860, conservateur en chef, fonction qu'il conserve jusqu'en 1882. Il devient membre de l'université de Madras en 1880.
 Il fait de nombreuses herborisations en Inde et à Ceylan.
